--- a/Assignment 1/Story #3.xlsx
+++ b/Assignment 1/Story #3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edna\Desktop\Softray Sprint\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D86D63-B5CC-4B73-9933-20540019F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585C7BD-B530-4018-970C-5F7F249B4A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00289BA0-D13A-4CA8-BDCD-D4D84765ABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke test" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="169">
   <si>
     <t>Test case ID</t>
   </si>
@@ -280,21 +280,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>is successfully opened in Google Chrome browser</t>
-  </si>
-  <si>
     <t>1. Open Sign in form</t>
   </si>
   <si>
-    <t>This test is performed to ensure that the Sign in form</t>
-  </si>
-  <si>
     <t>Sign in page successfully opened</t>
   </si>
   <si>
-    <t>This test is performed to ensure that the Sign in page</t>
-  </si>
-  <si>
     <t>Verify that the user is able to view their password</t>
   </si>
   <si>
@@ -323,12 +314,6 @@
   </si>
   <si>
     <t>All input fields and buttons displayed</t>
-  </si>
-  <si>
-    <t>contains all fields and buttoons required when using</t>
-  </si>
-  <si>
-    <t>with Google Chrome</t>
   </si>
   <si>
     <t>Displaying "Forgot your password?" page content</t>
@@ -1181,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA521C3E-1A4A-4416-B6DD-E2F803E3EE66}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="I10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1193,7 @@
     <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1217,7 +1202,7 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1282,41 +1267,37 @@
         <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="31" t="s">
-        <v>56</v>
-      </c>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="18"/>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="22"/>
@@ -1346,10 +1327,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1359,45 +1340,39 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="21"/>
-      <c r="O12" s="31" t="s">
-        <v>54</v>
-      </c>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F13" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N13" s="18"/>
-      <c r="O13" s="22" t="s">
-        <v>67</v>
-      </c>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F14" s="18"/>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="32" t="s">
-        <v>68</v>
-      </c>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="18"/>
@@ -1423,10 +1398,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>20</v>
@@ -1436,45 +1411,45 @@
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F18" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -1484,7 +1459,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -1492,25 +1467,25 @@
     </row>
     <row r="21" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H21" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H22" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H23" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H24" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O24" s="22"/>
     </row>
@@ -1523,7 +1498,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -1538,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>20</v>
@@ -1547,88 +1522,88 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H27" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>162</v>
       </c>
       <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H29" s="21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H30" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H31" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O31" s="22"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H32" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O32" s="22"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H33" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H34" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H35" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O35" s="22"/>
     </row>
@@ -1659,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E9BB71-C469-403B-848E-349BE97BAC1B}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +1661,7 @@
     <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1695,7 +1670,7 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1760,13 +1735,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>35</v>
@@ -1779,7 +1754,7 @@
       <c r="A8" s="2"/>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -1790,7 +1765,7 @@
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
       <c r="H9" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -1823,7 +1798,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1833,15 +1808,15 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="4"/>
@@ -1850,7 +1825,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J13" s="18"/>
       <c r="N13" s="18"/>
@@ -1861,7 +1836,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="H14" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1909,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1919,17 +1894,17 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" s="4"/>
@@ -1938,15 +1913,15 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="F18" s="24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="22"/>
@@ -1954,10 +1929,10 @@
     <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O19" s="22"/>
     </row>
@@ -1968,11 +1943,11 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
@@ -1985,7 +1960,7 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="H21" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="29"/>
@@ -1998,7 +1973,7 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="H22" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="29"/>
@@ -2015,7 +1990,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2032,7 +2007,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="21"/>
       <c r="H24" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="29"/>
@@ -2049,7 +2024,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="18"/>
       <c r="H25" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -2064,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2078,10 +2053,10 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>34</v>
@@ -2096,10 +2071,10 @@
         <v>31</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>35</v>
@@ -2115,10 +2090,10 @@
         <v>32</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="10"/>
@@ -2132,7 +2107,7 @@
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="H29" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="29"/>
@@ -2145,7 +2120,7 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="H30" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
@@ -2163,7 +2138,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="10"/>
       <c r="H31" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="24"/>
@@ -2182,7 +2157,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="21"/>
       <c r="H32" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="24"/>
@@ -2201,7 +2176,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="21"/>
       <c r="H33" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -2233,7 +2208,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2243,14 +2218,14 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>34</v>
@@ -2263,10 +2238,10 @@
       <c r="A36" s="2"/>
       <c r="F36" s="17"/>
       <c r="H36" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>35</v>
@@ -2279,10 +2254,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="H37" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2296,7 +2271,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="H38" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
@@ -2310,7 +2285,7 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="H39" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -2324,7 +2299,7 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="H40" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
@@ -2342,7 +2317,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
       <c r="H41" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -2361,7 +2336,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="21"/>
       <c r="H42" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -2380,7 +2355,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="5"/>
       <c r="H43" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -2395,7 +2370,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -2405,17 +2380,17 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L44" s="4"/>
       <c r="N44" s="4"/>
@@ -2424,16 +2399,16 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="F45" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N45" s="18"/>
       <c r="O45" s="22"/>
@@ -2441,7 +2416,7 @@
     <row r="46" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="H46" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O46" s="22"/>
     </row>
@@ -2450,7 +2425,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="H47" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2464,7 +2439,7 @@
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="H48" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -2478,7 +2453,7 @@
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="H49" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
@@ -2492,7 +2467,7 @@
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="H50" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -2510,7 +2485,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="10"/>
       <c r="H51" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="24"/>
@@ -2529,7 +2504,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="21"/>
       <c r="H52" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="24"/>
@@ -2561,7 +2536,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -2571,17 +2546,17 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L54" s="4"/>
       <c r="N54" s="4"/>
@@ -2590,16 +2565,16 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N55" s="18"/>
       <c r="O55" s="22"/>
@@ -2609,13 +2584,13 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="H56" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I56" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="11"/>
@@ -2628,7 +2603,7 @@
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="H57" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -2642,7 +2617,7 @@
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="H58" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
@@ -2656,7 +2631,7 @@
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="H59" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
@@ -2670,7 +2645,7 @@
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
       <c r="H60" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
@@ -2687,7 +2662,7 @@
       <c r="E61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -2705,7 +2680,7 @@
       <c r="E62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
@@ -2724,7 +2699,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="5"/>
       <c r="H63" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -2744,7 +2719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95A0DB-AB3F-4532-8A04-9177057776F3}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2771,7 +2746,7 @@
     <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -2780,7 +2755,7 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>20</v>
@@ -2845,16 +2820,16 @@
         <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="29"/>
@@ -2864,7 +2839,7 @@
       <c r="A8" s="2"/>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I8" s="17"/>
       <c r="N8" s="21"/>
@@ -2874,7 +2849,7 @@
       <c r="A9" s="2"/>
       <c r="F9" s="3"/>
       <c r="H9" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -2905,10 +2880,10 @@
     </row>
     <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>20</v>
@@ -2917,14 +2892,14 @@
         <v>13</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L12" s="4"/>
       <c r="N12" s="29"/>
@@ -2934,11 +2909,11 @@
       <c r="A13" s="2"/>
       <c r="F13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
@@ -2947,7 +2922,7 @@
       <c r="A14" s="2"/>
       <c r="F14" s="3"/>
       <c r="H14" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
@@ -2955,7 +2930,7 @@
     <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="H15" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3"/>
       <c r="N15" s="21"/>
@@ -2983,7 +2958,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>20</v>
@@ -2992,16 +2967,16 @@
         <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L17" s="4"/>
       <c r="N17" s="29"/>
@@ -3011,13 +2986,13 @@
       <c r="A18" s="2"/>
       <c r="F18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="22"/>
@@ -3026,7 +3001,7 @@
       <c r="A19" s="2"/>
       <c r="F19" s="3"/>
       <c r="H19" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="22"/>
@@ -3034,7 +3009,7 @@
     <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="H20" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I20" s="3"/>
       <c r="N20" s="21"/>
@@ -3062,7 +3037,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>20</v>
@@ -3072,19 +3047,19 @@
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L22" s="4"/>
       <c r="N22" s="4"/>
@@ -3093,23 +3068,23 @@
     <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="F23" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="H24" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O24" s="22"/>
     </row>
@@ -3118,10 +3093,10 @@
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="H25" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="29"/>
@@ -3134,10 +3109,10 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="H26" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="29"/>
@@ -3150,7 +3125,7 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="H27" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="29"/>
@@ -3165,7 +3140,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="21"/>
       <c r="H28" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="29"/>
@@ -3181,7 +3156,7 @@
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="H29" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -3196,7 +3171,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>20</v>
@@ -3210,10 +3185,10 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>43</v>
@@ -3228,7 +3203,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>38</v>
@@ -3246,7 +3221,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>39</v>
@@ -3265,7 +3240,7 @@
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="H33" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>40</v>
@@ -3284,7 +3259,7 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="H34" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>41</v>
@@ -3304,7 +3279,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="21"/>
       <c r="H35" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>42</v>
@@ -3325,7 +3300,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="21"/>
       <c r="H36" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="24"/>
@@ -3344,7 +3319,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="23"/>
       <c r="H37" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -3359,7 +3334,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>20</v>
@@ -3369,14 +3344,14 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>47</v>
@@ -3393,13 +3368,13 @@
       <c r="F39" s="16"/>
       <c r="G39" s="21"/>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L39" s="4"/>
       <c r="N39" s="4"/>
@@ -3413,10 +3388,10 @@
       <c r="F40" s="16"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J40" s="24"/>
       <c r="L40" s="4"/>
@@ -3427,10 +3402,10 @@
       <c r="A41" s="2"/>
       <c r="F41" s="17"/>
       <c r="H41" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O41" s="22"/>
     </row>
@@ -3438,7 +3413,7 @@
       <c r="A42" s="21"/>
       <c r="F42" s="17"/>
       <c r="H42" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J42" s="24"/>
       <c r="O42" s="22"/>
@@ -3447,7 +3422,7 @@
       <c r="A43" s="21"/>
       <c r="F43" s="17"/>
       <c r="H43" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J43" s="24"/>
       <c r="O43" s="22"/>
@@ -3456,7 +3431,7 @@
       <c r="A44" s="21"/>
       <c r="F44" s="17"/>
       <c r="H44" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J44" s="24"/>
       <c r="O44" s="22"/>
@@ -3466,7 +3441,7 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="H45" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -3484,7 +3459,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="21"/>
       <c r="H46" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3516,7 +3491,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>20</v>
@@ -3526,17 +3501,17 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L48" s="4"/>
       <c r="N48" s="4"/>
@@ -3545,41 +3520,41 @@
     <row r="49" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="H49" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>37</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="H50" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O50" s="22"/>
     </row>
     <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="H51" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O51" s="22"/>
     </row>
     <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="H52" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O52" s="22"/>
     </row>
     <row r="53" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="H53" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O53" s="22"/>
     </row>
@@ -3588,7 +3563,7 @@
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="H54" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
@@ -3606,7 +3581,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="21"/>
       <c r="H55" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="24"/>
@@ -3625,7 +3600,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="21"/>
       <c r="H56" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="24"/>
@@ -3644,7 +3619,7 @@
       <c r="F57" s="25"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
@@ -3659,7 +3634,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>20</v>
@@ -3669,16 +3644,16 @@
       </c>
       <c r="E58" s="19"/>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O58" s="20"/>
     </row>
@@ -3688,13 +3663,13 @@
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="H59" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O59" s="22"/>
     </row>
@@ -3707,7 +3682,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
@@ -3720,21 +3695,21 @@
     <row r="61" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="H61" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="H62" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="H63" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O63" s="22"/>
     </row>
@@ -3747,7 +3722,7 @@
       <c r="F64" s="12"/>
       <c r="G64" s="21"/>
       <c r="H64" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="24"/>
@@ -3766,7 +3741,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="21"/>
       <c r="H65" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="24"/>
@@ -3785,7 +3760,7 @@
       <c r="F66" s="12"/>
       <c r="G66" s="21"/>
       <c r="H66" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="24"/>
@@ -3804,7 +3779,7 @@
       <c r="F67" s="25"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
@@ -3819,7 +3794,7 @@
         <v>50</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>20</v>
@@ -3829,17 +3804,17 @@
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
@@ -3854,15 +3829,15 @@
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
@@ -3873,10 +3848,10 @@
     <row r="70" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="H70" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O70" s="22"/>
     </row>
@@ -3889,7 +3864,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="21"/>
@@ -3904,7 +3879,7 @@
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
       <c r="H72" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
@@ -3918,7 +3893,7 @@
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="H73" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
@@ -3932,7 +3907,7 @@
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
       <c r="H74" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
@@ -3950,7 +3925,7 @@
       <c r="F75" s="12"/>
       <c r="G75" s="21"/>
       <c r="H75" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="24"/>
@@ -3969,7 +3944,7 @@
       <c r="F76" s="12"/>
       <c r="G76" s="21"/>
       <c r="H76" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="24"/>
@@ -3988,7 +3963,7 @@
       <c r="F77" s="25"/>
       <c r="G77" s="23"/>
       <c r="H77" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
